--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_27.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Instances_Fold_27.xlsx
@@ -422,7 +422,7 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
